--- a/Code/Results/Cases/Case_9_48/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_9_48/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.382376560288208</v>
+        <v>1.251894550419649</v>
       </c>
       <c r="C2">
-        <v>0.1247469626012432</v>
+        <v>0.127355828491325</v>
       </c>
       <c r="D2">
-        <v>0.05972229211615598</v>
+        <v>0.06200876056139037</v>
       </c>
       <c r="E2">
-        <v>0.07299128617415818</v>
+        <v>0.06632626555454735</v>
       </c>
       <c r="F2">
-        <v>0.9746259997994997</v>
+        <v>0.8541828260924405</v>
       </c>
       <c r="G2">
-        <v>0.9175893974777978</v>
+        <v>0.7688306048376461</v>
       </c>
       <c r="H2">
-        <v>0.004828996771721994</v>
+        <v>0.003571198451165269</v>
       </c>
       <c r="I2">
-        <v>0.008559674391034111</v>
+        <v>0.006151272503013949</v>
       </c>
       <c r="J2">
-        <v>0.6395785515278618</v>
+        <v>0.587923877272658</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2711507459944862</v>
       </c>
       <c r="M2">
-        <v>1.115818625487464</v>
+        <v>0.2027764442147699</v>
       </c>
       <c r="N2">
-        <v>0.2641109136911695</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.095208138198814</v>
       </c>
       <c r="P2">
-        <v>1.182398205017762</v>
+        <v>0.2767248930133803</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>1.068736340446915</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.207925204672392</v>
+        <v>1.097613632420945</v>
       </c>
       <c r="C3">
-        <v>0.114688169404296</v>
+        <v>0.1137774951161177</v>
       </c>
       <c r="D3">
-        <v>0.05682209852297504</v>
+        <v>0.05789620938144324</v>
       </c>
       <c r="E3">
-        <v>0.06553161682005637</v>
+        <v>0.06007570859449984</v>
       </c>
       <c r="F3">
-        <v>0.9143234552148982</v>
+        <v>0.8076282228759339</v>
       </c>
       <c r="G3">
-        <v>0.8640730383159791</v>
+        <v>0.7328431026175224</v>
       </c>
       <c r="H3">
-        <v>0.007005848188760766</v>
+        <v>0.005282681738607242</v>
       </c>
       <c r="I3">
-        <v>0.01148877980098151</v>
+        <v>0.0082705005444903</v>
       </c>
       <c r="J3">
-        <v>0.6186874564297682</v>
+        <v>0.5698376728389576</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2709409745450841</v>
       </c>
       <c r="M3">
-        <v>0.9699179592123244</v>
+        <v>0.1920091267722341</v>
       </c>
       <c r="N3">
-        <v>0.2311652674376177</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.9535141184600775</v>
       </c>
       <c r="P3">
-        <v>1.207592503557123</v>
+        <v>0.242719483667841</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>1.098789014391567</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.100545736926392</v>
+        <v>1.002321961546187</v>
       </c>
       <c r="C4">
-        <v>0.1085575162429606</v>
+        <v>0.1055734813879354</v>
       </c>
       <c r="D4">
-        <v>0.05502182132369526</v>
+        <v>0.05536945713314623</v>
       </c>
       <c r="E4">
-        <v>0.06092325793650843</v>
+        <v>0.0561994036257758</v>
       </c>
       <c r="F4">
-        <v>0.8777737555573211</v>
+        <v>0.7793222633113928</v>
       </c>
       <c r="G4">
-        <v>0.8315750773123796</v>
+        <v>0.7110811775030896</v>
       </c>
       <c r="H4">
-        <v>0.008601379069816922</v>
+        <v>0.006546821868496144</v>
       </c>
       <c r="I4">
-        <v>0.01361776705056794</v>
+        <v>0.009834340716032841</v>
       </c>
       <c r="J4">
-        <v>0.6061162255727339</v>
+        <v>0.558690974352416</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2706350438693477</v>
       </c>
       <c r="M4">
-        <v>0.8804231326122647</v>
+        <v>0.1860803811831566</v>
       </c>
       <c r="N4">
-        <v>0.2109744687919459</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.866463131683048</v>
       </c>
       <c r="P4">
-        <v>1.223404198507211</v>
+        <v>0.2218775887247801</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>1.117614934699706</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.055614132086589</v>
+        <v>0.9623379058463399</v>
       </c>
       <c r="C5">
-        <v>0.1062064566420915</v>
+        <v>0.1024444947130476</v>
       </c>
       <c r="D5">
-        <v>0.05432186651365356</v>
+        <v>0.05438480239757482</v>
       </c>
       <c r="E5">
-        <v>0.05897798785542818</v>
+        <v>0.05455588900806063</v>
       </c>
       <c r="F5">
-        <v>0.862094804132262</v>
+        <v>0.767049312852059</v>
       </c>
       <c r="G5">
-        <v>0.8174166034570334</v>
+        <v>0.7014193544720086</v>
       </c>
       <c r="H5">
-        <v>0.009319431140376228</v>
+        <v>0.007117848965483342</v>
       </c>
       <c r="I5">
-        <v>0.01465546733249568</v>
+        <v>0.01063568693912931</v>
       </c>
       <c r="J5">
-        <v>0.6005451234767207</v>
+        <v>0.5536721119036372</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.270147068599492</v>
       </c>
       <c r="M5">
-        <v>0.8437448278220359</v>
+        <v>0.1836190696946858</v>
       </c>
       <c r="N5">
-        <v>0.2028126902109335</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.8307601128683757</v>
       </c>
       <c r="P5">
-        <v>1.229259772438812</v>
+        <v>0.2134486207647512</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>1.124874880969319</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.046803451213179</v>
+        <v>0.954458502337161</v>
       </c>
       <c r="C6">
-        <v>0.1059876739497199</v>
+        <v>0.1021535559048132</v>
       </c>
       <c r="D6">
-        <v>0.05425305514550161</v>
+        <v>0.05427751573328621</v>
       </c>
       <c r="E6">
-        <v>0.05858173011514722</v>
+        <v>0.05421672815852041</v>
       </c>
       <c r="F6">
-        <v>0.8584031806416377</v>
+        <v>0.7640357602428978</v>
       </c>
       <c r="G6">
-        <v>0.8138505911943525</v>
+        <v>0.6987565612299846</v>
       </c>
       <c r="H6">
-        <v>0.009448936266258451</v>
+        <v>0.00722105631011366</v>
       </c>
       <c r="I6">
-        <v>0.01495002503104992</v>
+        <v>0.01090409623304733</v>
       </c>
       <c r="J6">
-        <v>0.5990014607337031</v>
+        <v>0.5522698907178381</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2696749931260527</v>
       </c>
       <c r="M6">
-        <v>0.8373852636854622</v>
+        <v>0.1829567209050786</v>
       </c>
       <c r="N6">
-        <v>0.2015305093667621</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8245750791891737</v>
       </c>
       <c r="P6">
-        <v>1.229419398237699</v>
+        <v>0.2121194420881807</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>1.125474272661435</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.096252899213141</v>
+        <v>0.9974935768662476</v>
       </c>
       <c r="C7">
-        <v>0.1089944603709725</v>
+        <v>0.1059503408506899</v>
       </c>
       <c r="D7">
-        <v>0.05514371543013752</v>
+        <v>0.05560908212462579</v>
       </c>
       <c r="E7">
-        <v>0.06069790770421335</v>
+        <v>0.05603201840436434</v>
       </c>
       <c r="F7">
-        <v>0.8745705716272525</v>
+        <v>0.774853253381302</v>
       </c>
       <c r="G7">
-        <v>0.8280502897239472</v>
+        <v>0.7112812645871713</v>
       </c>
       <c r="H7">
-        <v>0.008627587019574834</v>
+        <v>0.006574375792130494</v>
       </c>
       <c r="I7">
-        <v>0.01393436105316415</v>
+        <v>0.01019451853935749</v>
       </c>
       <c r="J7">
-        <v>0.6043423320332835</v>
+        <v>0.5508717848878604</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2691368927686071</v>
       </c>
       <c r="M7">
-        <v>0.8791883262263696</v>
+        <v>0.1849862067682366</v>
       </c>
       <c r="N7">
-        <v>0.2110635879619878</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.8640682257813239</v>
       </c>
       <c r="P7">
-        <v>1.221264869155977</v>
+        <v>0.2218820984189307</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>1.115261045312202</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.317342995962917</v>
+        <v>1.191242707991677</v>
       </c>
       <c r="C8">
-        <v>0.121896517075065</v>
+        <v>0.122799154517061</v>
       </c>
       <c r="D8">
-        <v>0.05890471164607192</v>
+        <v>0.06113979003362857</v>
       </c>
       <c r="E8">
-        <v>0.07015924627237524</v>
+        <v>0.06405661950281072</v>
       </c>
       <c r="F8">
-        <v>0.9497661207427939</v>
+        <v>0.8291502635622479</v>
       </c>
       <c r="G8">
-        <v>0.8946415125210052</v>
+        <v>0.7633470263013891</v>
       </c>
       <c r="H8">
-        <v>0.005541169658997536</v>
+        <v>0.004145197643091514</v>
       </c>
       <c r="I8">
-        <v>0.009858603682220135</v>
+        <v>0.007258917373190066</v>
       </c>
       <c r="J8">
-        <v>0.6300772925702915</v>
+        <v>0.5593358700494377</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2684318917766078</v>
       </c>
       <c r="M8">
-        <v>1.064490666470363</v>
+        <v>0.1967304877208171</v>
       </c>
       <c r="N8">
-        <v>0.2530075713793707</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.041344839966712</v>
       </c>
       <c r="P8">
-        <v>1.18815113269018</v>
+        <v>0.2650005535813165</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>1.074437906814428</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.755868542024132</v>
+        <v>1.576359838150722</v>
       </c>
       <c r="C9">
-        <v>0.1468560664835579</v>
+        <v>0.1566563335358495</v>
       </c>
       <c r="D9">
-        <v>0.06589271498275195</v>
+        <v>0.07134192101715087</v>
       </c>
       <c r="E9">
-        <v>0.08888702593417364</v>
+        <v>0.07971165148790504</v>
       </c>
       <c r="F9">
-        <v>1.106817512490764</v>
+        <v>0.9488518566642909</v>
       </c>
       <c r="G9">
-        <v>1.034476326530537</v>
+        <v>0.8618487631036942</v>
       </c>
       <c r="H9">
-        <v>0.001646776206380318</v>
+        <v>0.00113252688761567</v>
       </c>
       <c r="I9">
-        <v>0.004185844264917193</v>
+        <v>0.003145867532230895</v>
       </c>
       <c r="J9">
-        <v>0.6857853360011319</v>
+        <v>0.6004933073116234</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.26900651060377</v>
       </c>
       <c r="M9">
-        <v>1.430448270101238</v>
+        <v>0.2278478809510105</v>
       </c>
       <c r="N9">
-        <v>0.3353350910679893</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.394659107450138</v>
       </c>
       <c r="P9">
-        <v>1.129918528197805</v>
+        <v>0.349887116227066</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>1.00314339538409</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.05905884837091</v>
+        <v>1.836335948374426</v>
       </c>
       <c r="C10">
-        <v>0.1676101424965992</v>
+        <v>0.1835273146119505</v>
       </c>
       <c r="D10">
-        <v>0.07176983742596832</v>
+        <v>0.08043325877336116</v>
       </c>
       <c r="E10">
-        <v>0.09753522607876164</v>
+        <v>0.08671363991498282</v>
       </c>
       <c r="F10">
-        <v>1.20920770315935</v>
+        <v>1.016383550249088</v>
       </c>
       <c r="G10">
-        <v>1.12175972994558</v>
+        <v>0.9417131333955808</v>
       </c>
       <c r="H10">
-        <v>0.0005314431547063236</v>
+        <v>0.0003819498510115871</v>
       </c>
       <c r="I10">
-        <v>0.002110057978112145</v>
+        <v>0.001830768396185789</v>
       </c>
       <c r="J10">
-        <v>0.7192604734621568</v>
+        <v>0.5893813125231304</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2627844814068148</v>
       </c>
       <c r="M10">
-        <v>1.694966530624072</v>
+        <v>0.2477149307535029</v>
       </c>
       <c r="N10">
-        <v>0.3787128764674321</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.642196820568159</v>
       </c>
       <c r="P10">
-        <v>1.078815409832941</v>
+        <v>0.3941974317622368</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.9431237737848974</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.045965772608781</v>
+        <v>1.821902238814943</v>
       </c>
       <c r="C11">
-        <v>0.1945996461043933</v>
+        <v>0.2131447247975728</v>
       </c>
       <c r="D11">
-        <v>0.08203856775085683</v>
+        <v>0.09432530591565325</v>
       </c>
       <c r="E11">
-        <v>0.06463998869038434</v>
+        <v>0.05709718528255259</v>
       </c>
       <c r="F11">
-        <v>1.125603609801786</v>
+        <v>0.9280975550060191</v>
       </c>
       <c r="G11">
-        <v>1.017761597923837</v>
+        <v>0.895298461840369</v>
       </c>
       <c r="H11">
-        <v>0.01911498230945696</v>
+        <v>0.01898357535261752</v>
       </c>
       <c r="I11">
-        <v>0.002302444400838155</v>
+        <v>0.00226835079592913</v>
       </c>
       <c r="J11">
-        <v>0.6622795132603869</v>
+        <v>0.481295680054302</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2284515866238834</v>
       </c>
       <c r="M11">
-        <v>1.766091151121771</v>
+        <v>0.220793771486008</v>
       </c>
       <c r="N11">
-        <v>0.2599014546050142</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.697800816230426</v>
       </c>
       <c r="P11">
-        <v>0.9822667072018589</v>
+        <v>0.2714403432447341</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.8732971178784563</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.976235025189965</v>
+        <v>1.763244689134382</v>
       </c>
       <c r="C12">
-        <v>0.2149505520413442</v>
+        <v>0.233931301793703</v>
       </c>
       <c r="D12">
-        <v>0.09035221940181515</v>
+        <v>0.104543499520382</v>
       </c>
       <c r="E12">
-        <v>0.04400629268926437</v>
+        <v>0.03899564976087611</v>
       </c>
       <c r="F12">
-        <v>1.039806652891997</v>
+        <v>0.851284250542804</v>
       </c>
       <c r="G12">
-        <v>0.9202573305887256</v>
+        <v>0.8322776739450291</v>
       </c>
       <c r="H12">
-        <v>0.05789015806889353</v>
+        <v>0.05774201728636541</v>
       </c>
       <c r="I12">
-        <v>0.002283972797920697</v>
+        <v>0.002260131973123691</v>
       </c>
       <c r="J12">
-        <v>0.6112561826319478</v>
+        <v>0.4216072677221518</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2053673192584</v>
       </c>
       <c r="M12">
-        <v>1.770468412225199</v>
+        <v>0.1975872534195631</v>
       </c>
       <c r="N12">
-        <v>0.1698471706447648</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.697282115719389</v>
       </c>
       <c r="P12">
-        <v>0.9259101831066552</v>
+        <v>0.1785139820891644</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.8421766714993955</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.853531074707973</v>
+        <v>1.66436560253652</v>
       </c>
       <c r="C13">
-        <v>0.2318293384900301</v>
+        <v>0.2507999446680031</v>
       </c>
       <c r="D13">
-        <v>0.09773872055106381</v>
+        <v>0.1120066849557944</v>
       </c>
       <c r="E13">
-        <v>0.03128299922997257</v>
+        <v>0.02846361371480066</v>
       </c>
       <c r="F13">
-        <v>0.9426965643625351</v>
+        <v>0.7772850394963058</v>
       </c>
       <c r="G13">
-        <v>0.816971843001852</v>
+        <v>0.741844338521858</v>
       </c>
       <c r="H13">
-        <v>0.1138503101394832</v>
+        <v>0.1136443388223256</v>
       </c>
       <c r="I13">
-        <v>0.002487830396783686</v>
+        <v>0.002367564635860298</v>
       </c>
       <c r="J13">
-        <v>0.5591981760698275</v>
+        <v>0.3955893410862927</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1877590950965455</v>
       </c>
       <c r="M13">
-        <v>1.722400410378526</v>
+        <v>0.1754871433834388</v>
       </c>
       <c r="N13">
-        <v>0.09743429625536493</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.655595198517688</v>
       </c>
       <c r="P13">
-        <v>0.8930093053323596</v>
+        <v>0.1038328309816308</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.8335211468429788</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.743430758923267</v>
+        <v>1.576247267208714</v>
       </c>
       <c r="C14">
-        <v>0.2425252531607782</v>
+        <v>0.2613376202939293</v>
       </c>
       <c r="D14">
-        <v>0.1026211824723262</v>
+        <v>0.1160010697978677</v>
       </c>
       <c r="E14">
-        <v>0.027129859864156</v>
+        <v>0.02570595759071725</v>
       </c>
       <c r="F14">
-        <v>0.8696717844697162</v>
+        <v>0.7258412974768333</v>
       </c>
       <c r="G14">
-        <v>0.7423300727517557</v>
+        <v>0.6681909489470002</v>
       </c>
       <c r="H14">
-        <v>0.1634107458470169</v>
+        <v>0.1631378025821562</v>
       </c>
       <c r="I14">
-        <v>0.002854546907363087</v>
+        <v>0.002621151115710596</v>
       </c>
       <c r="J14">
-        <v>0.5223628710547104</v>
+        <v>0.3892249261679979</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1774086979960821</v>
       </c>
       <c r="M14">
-        <v>1.665003067428131</v>
+        <v>0.1605539529442659</v>
       </c>
       <c r="N14">
-        <v>0.05782609996590793</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.607496038217505</v>
       </c>
       <c r="P14">
-        <v>0.8815706996200641</v>
+        <v>0.06285336377511186</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.8369433729605831</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.704275275910646</v>
+        <v>1.544931424782675</v>
       </c>
       <c r="C15">
-        <v>0.2443424400111098</v>
+        <v>0.2631747628556695</v>
       </c>
       <c r="D15">
-        <v>0.1035427210247448</v>
+        <v>0.1163273948309893</v>
       </c>
       <c r="E15">
-        <v>0.02668195897101966</v>
+        <v>0.02560358401285034</v>
       </c>
       <c r="F15">
-        <v>0.8484202657789979</v>
+        <v>0.7123733199412996</v>
       </c>
       <c r="G15">
-        <v>0.7215930779795912</v>
+        <v>0.6447911857260493</v>
       </c>
       <c r="H15">
-        <v>0.1760216079531034</v>
+        <v>0.1757156639850876</v>
       </c>
       <c r="I15">
-        <v>0.003140246645292777</v>
+        <v>0.002869878305864937</v>
       </c>
       <c r="J15">
-        <v>0.5125198127868487</v>
+        <v>0.3922448501486002</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1753664294661341</v>
       </c>
       <c r="M15">
-        <v>1.639746411907169</v>
+        <v>0.1567332189291868</v>
       </c>
       <c r="N15">
-        <v>0.04950550886379901</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.586591045172867</v>
       </c>
       <c r="P15">
-        <v>0.8820206773973953</v>
+        <v>0.05424282052760532</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.8405675019786063</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.599885756674666</v>
+        <v>1.461579712169794</v>
       </c>
       <c r="C16">
-        <v>0.2316117495745686</v>
+        <v>0.2505206861760172</v>
       </c>
       <c r="D16">
-        <v>0.0992937815654571</v>
+        <v>0.1089845606436768</v>
       </c>
       <c r="E16">
-        <v>0.02591247581045009</v>
+        <v>0.0249889707963411</v>
       </c>
       <c r="F16">
-        <v>0.823537003128294</v>
+        <v>0.7088486837230192</v>
       </c>
       <c r="G16">
-        <v>0.7045556753553939</v>
+        <v>0.6040336766414498</v>
       </c>
       <c r="H16">
-        <v>0.1638226536938703</v>
+        <v>0.1633401701142532</v>
       </c>
       <c r="I16">
-        <v>0.004087388092465893</v>
+        <v>0.003531681915348805</v>
       </c>
       <c r="J16">
-        <v>0.5082022368648609</v>
+        <v>0.4360674956326562</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1812194892963781</v>
       </c>
       <c r="M16">
-        <v>1.53592661207486</v>
+        <v>0.1561233263203299</v>
       </c>
       <c r="N16">
-        <v>0.0481184202444247</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.500088573272592</v>
       </c>
       <c r="P16">
-        <v>0.9076314816584832</v>
+        <v>0.05316455155032074</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.8630429565410438</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.577677975422432</v>
+        <v>1.442759261720823</v>
       </c>
       <c r="C17">
-        <v>0.2160831384184121</v>
+        <v>0.234583523087764</v>
       </c>
       <c r="D17">
-        <v>0.09341674699899727</v>
+        <v>0.1016510260561319</v>
       </c>
       <c r="E17">
-        <v>0.02666548137575453</v>
+        <v>0.02508429374519217</v>
       </c>
       <c r="F17">
-        <v>0.8428233954183213</v>
+        <v>0.731803241282087</v>
       </c>
       <c r="G17">
-        <v>0.7304900490932056</v>
+        <v>0.6143537645050259</v>
       </c>
       <c r="H17">
-        <v>0.1263564327432078</v>
+        <v>0.1257714744475322</v>
       </c>
       <c r="I17">
-        <v>0.004666797511029053</v>
+        <v>0.003952524672182101</v>
       </c>
       <c r="J17">
-        <v>0.5242065535723839</v>
+        <v>0.4702530623419676</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1913965867315461</v>
       </c>
       <c r="M17">
-        <v>1.486837828173037</v>
+        <v>0.1629278643602206</v>
       </c>
       <c r="N17">
-        <v>0.06590853370976646</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.457363772169202</v>
       </c>
       <c r="P17">
-        <v>0.9327616648739578</v>
+        <v>0.07194411804034928</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.8798942321080174</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.626733973972165</v>
+        <v>1.482218718163551</v>
       </c>
       <c r="C18">
-        <v>0.1968961111496981</v>
+        <v>0.2147202038649567</v>
       </c>
       <c r="D18">
-        <v>0.08577268344308209</v>
+        <v>0.0932933104236966</v>
       </c>
       <c r="E18">
-        <v>0.03309982677882672</v>
+        <v>0.02992467978163127</v>
       </c>
       <c r="F18">
-        <v>0.9056319508495676</v>
+        <v>0.7861457219340551</v>
       </c>
       <c r="G18">
-        <v>0.8007404481890745</v>
+        <v>0.6661988217784796</v>
       </c>
       <c r="H18">
-        <v>0.07354100359122384</v>
+        <v>0.07294399337565949</v>
       </c>
       <c r="I18">
-        <v>0.00455376719726619</v>
+        <v>0.003758927940222812</v>
       </c>
       <c r="J18">
-        <v>0.561623781868775</v>
+        <v>0.5099425924446024</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2084675362976505</v>
       </c>
       <c r="M18">
-        <v>1.479390488637989</v>
+        <v>0.1785282385716869</v>
       </c>
       <c r="N18">
-        <v>0.1120499937341819</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.450562033869176</v>
       </c>
       <c r="P18">
-        <v>0.966620167922196</v>
+        <v>0.1199977063497499</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.8986314125106212</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.723999741321364</v>
+        <v>1.561157816874498</v>
       </c>
       <c r="C19">
-        <v>0.1793815537656229</v>
+        <v>0.1963669697915833</v>
       </c>
       <c r="D19">
-        <v>0.07834665005934482</v>
+        <v>0.08551775291596897</v>
       </c>
       <c r="E19">
-        <v>0.04990035448676444</v>
+        <v>0.04427291332939731</v>
       </c>
       <c r="F19">
-        <v>0.9965064321615102</v>
+        <v>0.8604881939381386</v>
       </c>
       <c r="G19">
-        <v>0.9001747624847667</v>
+        <v>0.7435895373447181</v>
       </c>
       <c r="H19">
-        <v>0.02795138604220426</v>
+        <v>0.02743652572897304</v>
       </c>
       <c r="I19">
-        <v>0.00443033549427696</v>
+        <v>0.003741861130388102</v>
       </c>
       <c r="J19">
-        <v>0.6126355011501659</v>
+        <v>0.5537376216871337</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2298734494683607</v>
       </c>
       <c r="M19">
-        <v>1.50436341465965</v>
+        <v>0.2000898194320442</v>
       </c>
       <c r="N19">
-        <v>0.1930486659499309</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.472792612503383</v>
       </c>
       <c r="P19">
-        <v>1.011374622538543</v>
+        <v>0.2037356536181818</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.9226668459652068</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.966934920445112</v>
+        <v>1.760375689752749</v>
       </c>
       <c r="C20">
-        <v>0.1637556272148473</v>
+        <v>0.179417201500101</v>
       </c>
       <c r="D20">
-        <v>0.07071330924220121</v>
+        <v>0.07822392025809677</v>
       </c>
       <c r="E20">
-        <v>0.0944373713625879</v>
+        <v>0.08401525028791212</v>
       </c>
       <c r="F20">
-        <v>1.172151174079673</v>
+        <v>0.9956621158211618</v>
       </c>
       <c r="G20">
-        <v>1.087608568042583</v>
+        <v>0.8991182353988023</v>
       </c>
       <c r="H20">
-        <v>0.0007210715140675283</v>
+        <v>0.0004871806260435818</v>
       </c>
       <c r="I20">
-        <v>0.003376308169461772</v>
+        <v>0.003068093940112426</v>
       </c>
       <c r="J20">
-        <v>0.7047786706902741</v>
+        <v>0.6085280414894498</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2630019431255164</v>
       </c>
       <c r="M20">
-        <v>1.622719953164477</v>
+        <v>0.2408128873951085</v>
       </c>
       <c r="N20">
-        <v>0.3671860312959723</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.57919368267369</v>
       </c>
       <c r="P20">
-        <v>1.085431049731262</v>
+        <v>0.3826615520055583</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.9566786187894536</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.227766196166158</v>
+        <v>1.964207026733561</v>
       </c>
       <c r="C21">
-        <v>0.1770478959336401</v>
+        <v>0.1928115874516436</v>
       </c>
       <c r="D21">
-        <v>0.07396199776290047</v>
+        <v>0.08600714902649287</v>
       </c>
       <c r="E21">
-        <v>0.1088529300687426</v>
+        <v>0.09713152845911921</v>
       </c>
       <c r="F21">
-        <v>1.276757381023387</v>
+        <v>1.037685149449999</v>
       </c>
       <c r="G21">
-        <v>1.18316179903789</v>
+        <v>1.048954675299044</v>
       </c>
       <c r="H21">
-        <v>3.428979067310323E-05</v>
+        <v>8.632563567756435E-06</v>
       </c>
       <c r="I21">
-        <v>0.002178176201846682</v>
+        <v>0.002327305243385425</v>
       </c>
       <c r="J21">
-        <v>0.7449174837170034</v>
+        <v>0.5083297271308282</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2574557783505718</v>
       </c>
       <c r="M21">
-        <v>1.835385807912473</v>
+        <v>0.2557381461388388</v>
       </c>
       <c r="N21">
-        <v>0.4278723072095545</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.753456341448839</v>
       </c>
       <c r="P21">
-        <v>1.062698308991131</v>
+        <v>0.4432953952199767</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.9091496328212898</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.394901693195777</v>
+        <v>2.092892016034227</v>
       </c>
       <c r="C22">
-        <v>0.1861022194105857</v>
+        <v>0.2016416977696736</v>
       </c>
       <c r="D22">
-        <v>0.07626811739856265</v>
+        <v>0.09158427324688745</v>
       </c>
       <c r="E22">
-        <v>0.1160340538311466</v>
+        <v>0.1037496274684884</v>
       </c>
       <c r="F22">
-        <v>1.342338397229156</v>
+        <v>1.060311576683063</v>
       </c>
       <c r="G22">
-        <v>1.242296057479024</v>
+        <v>1.15400783735889</v>
       </c>
       <c r="H22">
-        <v>3.037958455642809E-05</v>
+        <v>4.746452772863563E-05</v>
       </c>
       <c r="I22">
-        <v>0.001512330633065773</v>
+        <v>0.001760359232580555</v>
       </c>
       <c r="J22">
-        <v>0.769533299073089</v>
+        <v>0.4437137628465422</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.252708658469956</v>
       </c>
       <c r="M22">
-        <v>1.973166455330386</v>
+        <v>0.2645199784683498</v>
       </c>
       <c r="N22">
-        <v>0.4584207005032823</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.863730969646298</v>
       </c>
       <c r="P22">
-        <v>1.046141958299032</v>
+        <v>0.473419857328409</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.877103950871998</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.31021204731195</v>
+        <v>2.030863821545893</v>
       </c>
       <c r="C23">
-        <v>0.1806599065104422</v>
+        <v>0.1966747179891826</v>
       </c>
       <c r="D23">
-        <v>0.07486571075976656</v>
+        <v>0.08805800235265338</v>
       </c>
       <c r="E23">
-        <v>0.1124415268878813</v>
+        <v>0.1003237589716406</v>
       </c>
       <c r="F23">
-        <v>1.310795440566594</v>
+        <v>1.055471269245245</v>
       </c>
       <c r="G23">
-        <v>1.214603872592235</v>
+        <v>1.091459528464227</v>
       </c>
       <c r="H23">
-        <v>1.998159415705913E-07</v>
+        <v>3.277546789082209E-06</v>
       </c>
       <c r="I23">
-        <v>0.001511193744487827</v>
+        <v>0.001654639449018447</v>
       </c>
       <c r="J23">
-        <v>0.7583412154435081</v>
+        <v>0.4911490098610187</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2570113884439706</v>
       </c>
       <c r="M23">
-        <v>1.900512638954183</v>
+        <v>0.2619198489075387</v>
       </c>
       <c r="N23">
-        <v>0.4418598098331756</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1.809123909564903</v>
       </c>
       <c r="P23">
-        <v>1.057284703565735</v>
+        <v>0.4572998174629532</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.8970017118167668</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.982705925628181</v>
+        <v>1.773740510213145</v>
       </c>
       <c r="C24">
-        <v>0.1613157044564062</v>
+        <v>0.1763636786752585</v>
       </c>
       <c r="D24">
-        <v>0.06980628132505018</v>
+        <v>0.07714242717682396</v>
       </c>
       <c r="E24">
-        <v>0.09847988419723208</v>
+        <v>0.08767917451847396</v>
       </c>
       <c r="F24">
-        <v>1.187532992707688</v>
+        <v>1.008728372001428</v>
       </c>
       <c r="G24">
-        <v>1.105035047189688</v>
+        <v>0.912755640706294</v>
       </c>
       <c r="H24">
-        <v>0.0005575481606270305</v>
+        <v>0.0003348514098124866</v>
       </c>
       <c r="I24">
-        <v>0.002832392666228145</v>
+        <v>0.002433944265642474</v>
       </c>
       <c r="J24">
-        <v>0.7136770478455077</v>
+        <v>0.6168982215174594</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2672148299386414</v>
       </c>
       <c r="M24">
-        <v>1.62500911493035</v>
+        <v>0.2449933921314909</v>
       </c>
       <c r="N24">
-        <v>0.3798196128381903</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.581322910598061</v>
       </c>
       <c r="P24">
-        <v>1.096766600542146</v>
+        <v>0.395659017907775</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.9639874616055089</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.630535226458477</v>
+        <v>1.467749238165879</v>
       </c>
       <c r="C25">
-        <v>0.1409089996660811</v>
+        <v>0.1488504130588666</v>
       </c>
       <c r="D25">
-        <v>0.06426895504203856</v>
+        <v>0.06873515351726667</v>
       </c>
       <c r="E25">
-        <v>0.08346957993811088</v>
+        <v>0.07512690735837069</v>
       </c>
       <c r="F25">
-        <v>1.058392878265295</v>
+        <v>0.9136980690263243</v>
       </c>
       <c r="G25">
-        <v>0.9902038577577912</v>
+        <v>0.8249270068554893</v>
       </c>
       <c r="H25">
-        <v>0.00246316075797437</v>
+        <v>0.001748159405624561</v>
       </c>
       <c r="I25">
-        <v>0.005888893256488004</v>
+        <v>0.004562968372571419</v>
       </c>
       <c r="J25">
-        <v>0.6673984243821707</v>
+        <v>0.5953452964490396</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2679516139914426</v>
       </c>
       <c r="M25">
-        <v>1.329845102839158</v>
+        <v>0.2178343863023215</v>
       </c>
       <c r="N25">
-        <v>0.3133634606297591</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.299482213105847</v>
       </c>
       <c r="P25">
-        <v>1.141572192285629</v>
+        <v>0.3273248591917763</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.020519751857648</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
